--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Quick Heal Technologies Ltd/Pruned_Excel/Semi_Final/Quick Heal Technologies Ltd_Semi_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Quick Heal Technologies Ltd/Pruned_Excel/Semi_Final/Quick Heal Technologies Ltd_Semi_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>Balance Sheet of Quick Heal Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,48 +62,6 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
-  </si>
-  <si>
     <t>Cash Flow of Quick Heal Technologies(in Rs. Cr.)</t>
   </si>
   <si>
@@ -197,6 +158,9 @@
     <t>Quarterly Results of Quick Heal Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -251,121 +215,16 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Mar 15 Q4</t>
-  </si>
-  <si>
-    <t>Jun 15 Q1</t>
-  </si>
-  <si>
-    <t>Sep 15 Q2</t>
-  </si>
-  <si>
-    <t>Dec 15 Q3</t>
-  </si>
-  <si>
-    <t>Mar 16 Q4</t>
-  </si>
-  <si>
-    <t>Jun 16 Q1</t>
-  </si>
-  <si>
-    <t>Sep 16 Q2</t>
-  </si>
-  <si>
-    <t>Dec 16 Q3</t>
-  </si>
-  <si>
-    <t>Mar 17 Q4</t>
-  </si>
-  <si>
-    <t>Jun 17 Q1</t>
-  </si>
-  <si>
-    <t>Sep 17 Q2</t>
-  </si>
-  <si>
-    <t>Dec 17 Q3</t>
-  </si>
-  <si>
-    <t>Mar 18 Q4</t>
-  </si>
-  <si>
-    <t>Jun 18 Q1</t>
-  </si>
-  <si>
-    <t>Sep 18 Q2</t>
-  </si>
-  <si>
-    <t>Dec 18 Q3</t>
-  </si>
-  <si>
-    <t>Mar 19 Q4</t>
-  </si>
-  <si>
-    <t>Jun 19 Q1</t>
-  </si>
-  <si>
-    <t>Sep 19 Q2</t>
-  </si>
-  <si>
-    <t>Dec 19 Q3</t>
-  </si>
-  <si>
-    <t>Mar 20 Q4</t>
-  </si>
-  <si>
-    <t>Jun 20 Q1</t>
-  </si>
-  <si>
-    <t>Sep 20 Q2</t>
-  </si>
-  <si>
-    <t>Dec 20 Q3</t>
-  </si>
-  <si>
-    <t>Mar 21 Q4</t>
-  </si>
-  <si>
-    <t>Jun 21 Q1</t>
-  </si>
-  <si>
-    <t>Sep 21 Q2</t>
-  </si>
-  <si>
-    <t>Dec 21 Q3</t>
-  </si>
-  <si>
-    <t>Mar 22 Q4</t>
-  </si>
-  <si>
-    <t>Jun 22 Q1</t>
-  </si>
-  <si>
-    <t>Sep 22 Q2</t>
-  </si>
-  <si>
-    <t>Dec 22 Q3</t>
-  </si>
-  <si>
-    <t>Mar 23 Q4</t>
-  </si>
-  <si>
-    <t>Jun 23 Q1</t>
-  </si>
-  <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
   <si>
     <t>Key Financial Ratios of Quick Heal Technologies(in Rs. Cr.)</t>
@@ -777,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,578 +682,623 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2011</v>
+      </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>7.62</v>
-      </c>
-      <c r="C2">
-        <v>135.74</v>
       </c>
       <c r="D2">
         <v>135.74</v>
       </c>
       <c r="E2">
+        <v>135.74</v>
+      </c>
+      <c r="F2">
         <v>143.36</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.82</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>17.05</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>160.79</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>14.35</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>16.71</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>47.94</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>112.85</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>160.79</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2012</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>7.63</v>
-      </c>
-      <c r="C3">
-        <v>202.71</v>
       </c>
       <c r="D3">
         <v>202.71</v>
       </c>
       <c r="E3">
+        <v>202.71</v>
+      </c>
+      <c r="F3">
         <v>210.34</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.59</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>18.83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>229.59</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>17.96</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>42.69</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>51.78</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>177.8</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>229.59</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2013</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>7.63</v>
-      </c>
-      <c r="C4">
-        <v>278.02</v>
       </c>
       <c r="D4">
         <v>278.02</v>
       </c>
       <c r="E4">
+        <v>278.02</v>
+      </c>
+      <c r="F4">
         <v>285.65</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4.22</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>28.33</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>314.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>31.4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>67.37</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>79.01000000000001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>235.49</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>314.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>61.07</v>
-      </c>
-      <c r="C5">
-        <v>275.08</v>
       </c>
       <c r="D5">
         <v>275.08</v>
       </c>
       <c r="E5">
+        <v>275.08</v>
+      </c>
+      <c r="F5">
         <v>336.15</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5.26</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>46.87</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>383.01</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>63.19</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>137.11</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>160.91</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>222.11</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>383.01</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2015</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>61.07</v>
-      </c>
-      <c r="C6">
-        <v>276.56</v>
       </c>
       <c r="D6">
         <v>276.56</v>
       </c>
       <c r="E6">
+        <v>276.56</v>
+      </c>
+      <c r="F6">
         <v>337.63</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7.46</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>96.05</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>433.68</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>100.11</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>184.7</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>216.57</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>217.11</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>433.68</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2016</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>70.03</v>
-      </c>
-      <c r="C7">
-        <v>547.53</v>
       </c>
       <c r="D7">
         <v>547.53</v>
       </c>
       <c r="E7">
+        <v>547.53</v>
+      </c>
+      <c r="F7">
         <v>617.5599999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>14.23</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>108</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>725.5599999999999</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>132.15</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>196.55</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>238.45</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>487.11</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>725.5599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>2017</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>70.09999999999999</v>
-      </c>
-      <c r="C8">
-        <v>608.9400000000001</v>
       </c>
       <c r="D8">
         <v>608.9400000000001</v>
       </c>
       <c r="E8">
+        <v>608.9400000000001</v>
+      </c>
+      <c r="F8">
         <v>679.05</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>28.59</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>69.19</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>750.51</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>178.07</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>198.17</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>268.19</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>482.32</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>750.51</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2018</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>70.39</v>
-      </c>
-      <c r="C9">
-        <v>666.74</v>
       </c>
       <c r="D9">
         <v>666.74</v>
       </c>
       <c r="E9">
+        <v>666.74</v>
+      </c>
+      <c r="F9">
         <v>737.13</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>22.2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>54.48</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>793.71</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>161.1</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>186.8</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>231.21</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>562.5</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>793.71</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2019</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>70.56</v>
-      </c>
-      <c r="C10">
-        <v>724.3099999999999</v>
       </c>
       <c r="D10">
         <v>724.3099999999999</v>
       </c>
       <c r="E10">
+        <v>724.3099999999999</v>
+      </c>
+      <c r="F10">
         <v>794.88</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>19.99</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>58.47</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>857.15</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>156.97</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>175.29</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>230</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>627.16</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>857.15</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2020</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>64.2</v>
-      </c>
-      <c r="C11">
-        <v>584.01</v>
       </c>
       <c r="D11">
         <v>584.01</v>
       </c>
       <c r="E11">
+        <v>584.01</v>
+      </c>
+      <c r="F11">
         <v>648.21</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>10.98</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>49.34</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>699.98</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>148.48</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>161.84</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>227.92</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>472.06</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>699.98</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2021</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>64.20999999999999</v>
-      </c>
-      <c r="C12">
-        <v>691.6</v>
       </c>
       <c r="D12">
         <v>691.6</v>
       </c>
       <c r="E12">
+        <v>691.6</v>
+      </c>
+      <c r="F12">
         <v>755.8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>23.92</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>73.63</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>830.63</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>140.45</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>147.82</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>207.4</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>623.23</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>830.63</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>24</v>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2022</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>58.01</v>
-      </c>
-      <c r="C13">
-        <v>569.2</v>
       </c>
       <c r="D13">
         <v>569.2</v>
       </c>
       <c r="E13">
+        <v>569.2</v>
+      </c>
+      <c r="F13">
         <v>627.21</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20.89</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>86.63</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>715.89</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>105.94</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>137.02</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>184.22</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>531.67</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>715.89</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>2023</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>53.07</v>
-      </c>
-      <c r="C14">
-        <v>357.14</v>
       </c>
       <c r="D14">
         <v>357.14</v>
       </c>
       <c r="E14">
+        <v>357.14</v>
+      </c>
+      <c r="F14">
         <v>419.72</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>22.84</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>71.52</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>492.89</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>97.56999999999999</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>124.61</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>170.65</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>322.24</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>492.89</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>26</v>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>2024</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>53.51</v>
-      </c>
-      <c r="C15">
-        <v>373.43</v>
       </c>
       <c r="D15">
         <v>373.43</v>
       </c>
       <c r="E15">
+        <v>373.43</v>
+      </c>
+      <c r="F15">
         <v>436.9</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>33.28</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>73.38</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>512.61</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>83.61</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>119.78</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>149.63</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>362.98</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>512.61</v>
       </c>
     </row>
@@ -1405,444 +1309,489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2011</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>56.96</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>20.19</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-50.3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>30.54</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.43</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.77</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2012</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>99.23999999999999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>48.73</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-52.41</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-39.235</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>-3.68</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6.2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.52</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2013</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>111.11</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>68.18000000000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-63.4</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-1.33</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>3.44</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.52</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5.97</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>89.2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>62.75</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-62.52</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-2.23</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>-2.01</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.97</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.96</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2015</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>82.31</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>78.11</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-57.36</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-17.5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>3.25</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.96</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>7.21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2016</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>93.01000000000001</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>81.33</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-167.3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>189.48</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>103.52</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.21</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>110.72</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2017</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>89.73999999999999</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>49.79</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-89.87</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-20.48</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.04</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-60.61</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>110.72</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>50.12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2018</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>119.22</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>95.59</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-118.84</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-18.53</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>-41.77</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>50.12</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>8.35</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2019</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>129.07</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>62.61</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-38.97</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-23.98</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>-0.34</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8.35</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8.01</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>2020</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>100.44</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>70.78</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>146.22</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-221.41</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>-4.41</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7.96</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.56</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>2021</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>145.84</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>100.57</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-94.69</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.1</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>5.98</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3.56</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>9.539999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>2022</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>103.56</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>79.06</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>129.55</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-214.14</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>-5.53</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>9.5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3.97</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>2023</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>9.289999999999999</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>30.99</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>187.5</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-212.17</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>6.32</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.97</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>10.29</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>2024</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>26.04</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>18.42</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>6.15</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.6</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>26.17</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>10.29</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>36.46</v>
       </c>
     </row>
@@ -1853,134 +1802,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2011</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>143.63</v>
-      </c>
-      <c r="C2">
-        <v>130.73</v>
       </c>
       <c r="D2">
         <v>130.73</v>
       </c>
       <c r="E2">
+        <v>130.73</v>
+      </c>
+      <c r="F2">
         <v>2.39</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>133.11</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>15.61</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.16</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.43</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>51.96</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>76.16</v>
-      </c>
-      <c r="M2">
-        <v>56.96</v>
       </c>
       <c r="N2">
         <v>56.96</v>
       </c>
       <c r="O2">
+        <v>56.96</v>
+      </c>
+      <c r="P2">
         <v>17.09</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1.29</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>18.38</v>
-      </c>
-      <c r="R2">
-        <v>38.58</v>
       </c>
       <c r="S2">
         <v>38.58</v>
@@ -1989,66 +1941,69 @@
         <v>38.58</v>
       </c>
       <c r="U2">
-        <v>6.48</v>
+        <v>38.58</v>
       </c>
       <c r="V2">
         <v>6.48</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>14</v>
+      <c r="W2">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2012</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>179.07</v>
-      </c>
-      <c r="C3">
-        <v>178.98</v>
       </c>
       <c r="D3">
         <v>178.98</v>
       </c>
       <c r="E3">
+        <v>178.98</v>
+      </c>
+      <c r="F3">
         <v>5.68</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>184.66</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>20.68</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>2.13</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>54.1</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>85.42</v>
-      </c>
-      <c r="M3">
-        <v>99.23999999999999</v>
       </c>
       <c r="N3">
         <v>99.23999999999999</v>
       </c>
       <c r="O3">
+        <v>99.23999999999999</v>
+      </c>
+      <c r="P3">
         <v>31.09</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.05</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>31.04</v>
-      </c>
-      <c r="R3">
-        <v>68.2</v>
       </c>
       <c r="S3">
         <v>68.2</v>
@@ -2057,66 +2012,69 @@
         <v>68.2</v>
       </c>
       <c r="U3">
-        <v>11.17</v>
+        <v>68.2</v>
       </c>
       <c r="V3">
         <v>11.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>15</v>
+      <c r="W3">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2013</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>204.89</v>
-      </c>
-      <c r="C4">
-        <v>204.88</v>
       </c>
       <c r="D4">
         <v>204.88</v>
       </c>
       <c r="E4">
+        <v>204.88</v>
+      </c>
+      <c r="F4">
         <v>9.75</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>214.63</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>28.16</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>4.44</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>61.43</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>103.52</v>
-      </c>
-      <c r="M4">
-        <v>111.11</v>
       </c>
       <c r="N4">
         <v>111.11</v>
       </c>
       <c r="O4">
+        <v>111.11</v>
+      </c>
+      <c r="P4">
         <v>33.11</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.46</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>33.57</v>
-      </c>
-      <c r="R4">
-        <v>77.54000000000001</v>
       </c>
       <c r="S4">
         <v>77.54000000000001</v>
@@ -2125,86 +2083,92 @@
         <v>77.54000000000001</v>
       </c>
       <c r="U4">
-        <v>12.7</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="V4">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>16</v>
+      <c r="W4">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>243.91</v>
-      </c>
-      <c r="C5">
-        <v>243.9</v>
       </c>
       <c r="D5">
         <v>243.9</v>
       </c>
       <c r="E5">
+        <v>243.9</v>
+      </c>
+      <c r="F5">
         <v>9.85</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>253.75</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>42.52</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>10.8</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>82.92</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>147.22</v>
-      </c>
-      <c r="M5">
-        <v>106.53</v>
       </c>
       <c r="N5">
         <v>106.53</v>
       </c>
       <c r="O5">
+        <v>106.53</v>
+      </c>
+      <c r="P5">
         <v>32.09</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-4.44</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>27.65</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>78.88</v>
-      </c>
-      <c r="S5">
-        <v>61.55</v>
       </c>
       <c r="T5">
         <v>61.55</v>
       </c>
       <c r="U5">
+        <v>61.55</v>
+      </c>
+      <c r="V5">
         <v>10.08</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>9.94</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>284.07</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>284.07</v>
@@ -2213,46 +2177,46 @@
         <v>284.07</v>
       </c>
       <c r="E6">
+        <v>284.07</v>
+      </c>
+      <c r="F6">
         <v>8.18</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>292.25</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>62.56</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>20.18</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>112.55</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>209.94</v>
-      </c>
-      <c r="M6">
-        <v>82.31</v>
       </c>
       <c r="N6">
         <v>82.31</v>
       </c>
       <c r="O6">
+        <v>82.31</v>
+      </c>
+      <c r="P6">
         <v>26.93</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-0.92</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>26.01</v>
-      </c>
-      <c r="R6">
-        <v>56.3</v>
       </c>
       <c r="S6">
         <v>56.3</v>
@@ -2261,18 +2225,21 @@
         <v>56.3</v>
       </c>
       <c r="U6">
+        <v>56.3</v>
+      </c>
+      <c r="V6">
         <v>9.220000000000001</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>9.09</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>334.47</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>334.47</v>
@@ -2281,46 +2248,46 @@
         <v>334.47</v>
       </c>
       <c r="E7">
+        <v>334.47</v>
+      </c>
+      <c r="F7">
         <v>9.35</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>343.82</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>83.28</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>23.68</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>129.49</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>250.81</v>
-      </c>
-      <c r="M7">
-        <v>93.01000000000001</v>
       </c>
       <c r="N7">
         <v>93.01000000000001</v>
       </c>
       <c r="O7">
+        <v>93.01000000000001</v>
+      </c>
+      <c r="P7">
         <v>32.46</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-2.31</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>30.15</v>
-      </c>
-      <c r="R7">
-        <v>62.86</v>
       </c>
       <c r="S7">
         <v>62.86</v>
@@ -2329,18 +2296,21 @@
         <v>62.86</v>
       </c>
       <c r="U7">
-        <v>10.08</v>
+        <v>62.86</v>
       </c>
       <c r="V7">
         <v>10.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>19</v>
+      <c r="W7">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>299.02</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>299.02</v>
@@ -2349,46 +2319,46 @@
         <v>299.02</v>
       </c>
       <c r="E8">
+        <v>299.02</v>
+      </c>
+      <c r="F8">
         <v>27.78</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>326.8</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>98.76000000000001</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>30.87</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>89.83</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>232.64</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>94.16</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>89.73999999999999</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>31.76</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-1.01</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>30.57</v>
-      </c>
-      <c r="R8">
-        <v>59.17</v>
       </c>
       <c r="S8">
         <v>59.17</v>
@@ -2397,18 +2367,21 @@
         <v>59.17</v>
       </c>
       <c r="U8">
+        <v>59.17</v>
+      </c>
+      <c r="V8">
         <v>8.449999999999999</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>8.4</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>316.22</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>316.22</v>
@@ -2417,46 +2390,46 @@
         <v>316.22</v>
       </c>
       <c r="E9">
+        <v>316.22</v>
+      </c>
+      <c r="F9">
         <v>29.88</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>346.1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>99.68000000000001</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>26.88</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>80.16</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>219.37</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>126.72</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>119.22</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>36.37</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3.97</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>40.34</v>
-      </c>
-      <c r="R9">
-        <v>78.88</v>
       </c>
       <c r="S9">
         <v>78.88</v>
@@ -2465,18 +2438,21 @@
         <v>78.88</v>
       </c>
       <c r="U9">
+        <v>78.88</v>
+      </c>
+      <c r="V9">
         <v>11.23</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>11.2</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>312.9</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>312.9</v>
@@ -2485,46 +2461,46 @@
         <v>312.9</v>
       </c>
       <c r="E10">
+        <v>312.9</v>
+      </c>
+      <c r="F10">
         <v>32.5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>345.4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>11.43</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>97.14</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>23.53</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>73.45999999999999</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>207.02</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>138.39</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>129.07</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>49.24</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-4.13</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>45.11</v>
-      </c>
-      <c r="R10">
-        <v>83.95999999999999</v>
       </c>
       <c r="S10">
         <v>83.95999999999999</v>
@@ -2533,18 +2509,21 @@
         <v>83.95999999999999</v>
       </c>
       <c r="U10">
+        <v>83.95999999999999</v>
+      </c>
+      <c r="V10">
         <v>11.91</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>11.9</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>283.4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>283.4</v>
@@ -2553,46 +2532,46 @@
         <v>283.4</v>
       </c>
       <c r="E11">
+        <v>283.4</v>
+      </c>
+      <c r="F11">
         <v>31.34</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>314.75</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>9.59</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>99.98999999999999</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>21.66</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>81.54000000000001</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>211.99</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>102.76</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>100.44</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>21.05</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>5.76</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>26.8</v>
-      </c>
-      <c r="R11">
-        <v>73.64</v>
       </c>
       <c r="S11">
         <v>73.64</v>
@@ -2601,18 +2580,21 @@
         <v>73.64</v>
       </c>
       <c r="U11">
+        <v>73.64</v>
+      </c>
+      <c r="V11">
         <v>11.23</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>11.22</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>333.53</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>333.53</v>
@@ -2621,46 +2603,46 @@
         <v>333.53</v>
       </c>
       <c r="E12">
+        <v>333.53</v>
+      </c>
+      <c r="F12">
         <v>23.94</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>357.47</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8.050000000000001</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>113.2</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>19.48</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>67.59</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>211.63</v>
-      </c>
-      <c r="M12">
-        <v>145.84</v>
       </c>
       <c r="N12">
         <v>145.84</v>
       </c>
       <c r="O12">
+        <v>145.84</v>
+      </c>
+      <c r="P12">
         <v>33.92</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3.36</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>39.04</v>
-      </c>
-      <c r="R12">
-        <v>106.79</v>
       </c>
       <c r="S12">
         <v>106.79</v>
@@ -2669,18 +2651,21 @@
         <v>106.79</v>
       </c>
       <c r="U12">
+        <v>106.79</v>
+      </c>
+      <c r="V12">
         <v>16.64</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>16.62</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>24</v>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>341.55</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>341.55</v>
@@ -2689,46 +2674,46 @@
         <v>341.55</v>
       </c>
       <c r="E13">
+        <v>341.55</v>
+      </c>
+      <c r="F13">
         <v>19.17</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>360.72</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>13.3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>138.34</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>17.38</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>84.97</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>253.1</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>107.62</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>103.56</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>25.76</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-1.04</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>25.37</v>
-      </c>
-      <c r="R13">
-        <v>78.19</v>
       </c>
       <c r="S13">
         <v>78.19</v>
@@ -2737,18 +2722,21 @@
         <v>78.19</v>
       </c>
       <c r="U13">
+        <v>78.19</v>
+      </c>
+      <c r="V13">
         <v>13.17</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>13.1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2023</v>
       </c>
       <c r="B14">
-        <v>278.11</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>278.11</v>
@@ -2757,46 +2745,46 @@
         <v>278.11</v>
       </c>
       <c r="E14">
+        <v>278.11</v>
+      </c>
+      <c r="F14">
         <v>22.38</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>300.49</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>7.83</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>154.89</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>15.99</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>111.09</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>291.3</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>9.19</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>9.289999999999999</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.25</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.48</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.59</v>
-      </c>
-      <c r="R14">
-        <v>7.7</v>
       </c>
       <c r="S14">
         <v>7.7</v>
@@ -2805,18 +2793,21 @@
         <v>7.7</v>
       </c>
       <c r="U14">
-        <v>1.38</v>
+        <v>7.7</v>
       </c>
       <c r="V14">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
-        <v>26</v>
+      <c r="W14">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2024</v>
       </c>
       <c r="B15">
-        <v>291.75</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>291.75</v>
@@ -2825,46 +2816,46 @@
         <v>291.75</v>
       </c>
       <c r="E15">
+        <v>291.75</v>
+      </c>
+      <c r="F15">
         <v>21.37</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>313.12</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5.13</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>168.94</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.13</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>12.6</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>98.58</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>287.08</v>
-      </c>
-      <c r="M15">
-        <v>26.04</v>
       </c>
       <c r="N15">
         <v>26.04</v>
       </c>
       <c r="O15">
+        <v>26.04</v>
+      </c>
+      <c r="P15">
         <v>5.78</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-3.88</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.97</v>
-      </c>
-      <c r="R15">
-        <v>24.07</v>
       </c>
       <c r="S15">
         <v>24.07</v>
@@ -2873,9 +2864,12 @@
         <v>24.07</v>
       </c>
       <c r="U15">
+        <v>24.07</v>
+      </c>
+      <c r="V15">
         <v>4.52</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>4.52</v>
       </c>
     </row>
@@ -2886,134 +2880,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
+      <c r="D2">
         <v>103.65</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>103.65</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>17.42</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>8.369999999999999</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>38.93</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>33.63</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1.68</v>
-      </c>
-      <c r="I2">
-        <v>35.3</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
       </c>
       <c r="K2">
         <v>35.3</v>
       </c>
       <c r="L2">
-        <v>-3.93</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>35.3</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>35.3</v>
+      </c>
+      <c r="P2">
         <v>11.01</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>24.29</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>24.29</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>61.07</v>
-      </c>
-      <c r="R2">
-        <v>3.98</v>
-      </c>
-      <c r="S2">
-        <v>3.92</v>
       </c>
       <c r="T2">
         <v>3.98</v>
@@ -3021,64 +3021,70 @@
       <c r="U2">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>78</v>
+      <c r="V2">
+        <v>3.98</v>
+      </c>
+      <c r="W2">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2015</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
         <v>61.83</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>61.83</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>19.38</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>5.7</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>30.95</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.33</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1.52</v>
-      </c>
-      <c r="I3">
-        <v>1.84</v>
-      </c>
-      <c r="J3">
-        <v>0.05</v>
       </c>
       <c r="K3">
         <v>1.84</v>
       </c>
       <c r="L3">
-        <v>-2.97</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1.84</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.84</v>
+      </c>
+      <c r="P3">
         <v>0.46</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1.38</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1.38</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>61.07</v>
-      </c>
-      <c r="R3">
-        <v>0.384</v>
-      </c>
-      <c r="S3">
-        <v>0.383</v>
       </c>
       <c r="T3">
         <v>0.384</v>
@@ -3086,64 +3092,70 @@
       <c r="U3">
         <v>0.383</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>79</v>
+      <c r="V3">
+        <v>0.384</v>
+      </c>
+      <c r="W3">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2015</v>
       </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
         <v>84.90000000000001</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>84.90000000000001</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>20.93</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>5.64</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>22.82</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>34.55</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>2.47</v>
-      </c>
-      <c r="I4">
-        <v>37.01</v>
-      </c>
-      <c r="J4">
-        <v>0.05</v>
       </c>
       <c r="K4">
         <v>37.01</v>
       </c>
       <c r="L4">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>37.01</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>37.01</v>
+      </c>
+      <c r="P4">
         <v>12.06</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>24.96</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>24.96</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>61.07</v>
-      </c>
-      <c r="R4">
-        <v>4.09</v>
-      </c>
-      <c r="S4">
-        <v>4.03</v>
       </c>
       <c r="T4">
         <v>4.09</v>
@@ -3151,64 +3163,70 @@
       <c r="U4">
         <v>4.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>80</v>
+      <c r="V4">
+        <v>4.09</v>
+      </c>
+      <c r="W4">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2015</v>
       </c>
       <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
         <v>57</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>57</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>20.75</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>6.02</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>31.91</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-4.35</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>2.21</v>
-      </c>
-      <c r="I5">
-        <v>-2.14</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
       <c r="K5">
         <v>-2.14</v>
       </c>
       <c r="L5">
-        <v>-0.287</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>-2.14</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>-2.14</v>
+      </c>
+      <c r="P5">
         <v>0.05</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>-2.19</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>-2.19</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>62.24</v>
-      </c>
-      <c r="R5">
-        <v>-0.35</v>
-      </c>
-      <c r="S5">
-        <v>-0.35</v>
       </c>
       <c r="T5">
         <v>-0.35</v>
@@ -3216,64 +3234,70 @@
       <c r="U5">
         <v>-0.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>81</v>
+      <c r="V5">
+        <v>-0.35</v>
+      </c>
+      <c r="W5">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2016</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
         <v>130.74</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>130.74</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>22.23</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>6.32</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>43.81</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>53.14</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>3.16</v>
-      </c>
-      <c r="I6">
-        <v>56.29</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
       </c>
       <c r="K6">
         <v>56.29</v>
       </c>
       <c r="L6">
-        <v>-3.93</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>56.29</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>56.29</v>
+      </c>
+      <c r="P6">
         <v>17.58</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>38.71</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>38.71</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>70.03</v>
-      </c>
-      <c r="R6">
-        <v>6.21</v>
-      </c>
-      <c r="S6">
-        <v>6.21</v>
       </c>
       <c r="T6">
         <v>6.21</v>
@@ -3281,64 +3305,70 @@
       <c r="U6">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>82</v>
+      <c r="V6">
+        <v>6.21</v>
+      </c>
+      <c r="W6">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2016</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
         <v>47.51</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>47.51</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>23.74</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>7.39</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>23.4</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>-8.890000000000001</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>7.42</v>
-      </c>
-      <c r="I7">
-        <v>-1.48</v>
-      </c>
-      <c r="J7">
-        <v>0.05</v>
       </c>
       <c r="K7">
         <v>-1.48</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>-1.48</v>
+      </c>
+      <c r="N7">
         <v>-3.78</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>-5.26</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>-1.87</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>-3.39</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>-3.39</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>70.03</v>
-      </c>
-      <c r="R7">
-        <v>-0.48</v>
-      </c>
-      <c r="S7">
-        <v>-0.48</v>
       </c>
       <c r="T7">
         <v>-0.48</v>
@@ -3346,64 +3376,70 @@
       <c r="U7">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>83</v>
+      <c r="V7">
+        <v>-0.48</v>
+      </c>
+      <c r="W7">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2016</v>
       </c>
       <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
         <v>106.43</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>106.43</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>25.39</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>7.76</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>24.4</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>47.84</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>6.91</v>
-      </c>
-      <c r="I8">
-        <v>54.74</v>
-      </c>
-      <c r="J8">
-        <v>0.05</v>
       </c>
       <c r="K8">
         <v>54.74</v>
       </c>
       <c r="L8">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>54.74</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>54.74</v>
+      </c>
+      <c r="P8">
         <v>18.43</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>36.31</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>36.31</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>70.03</v>
-      </c>
-      <c r="R8">
-        <v>5.18</v>
-      </c>
-      <c r="S8">
-        <v>5.15</v>
       </c>
       <c r="T8">
         <v>5.18</v>
@@ -3411,64 +3447,70 @@
       <c r="U8">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>84</v>
+      <c r="V8">
+        <v>5.18</v>
+      </c>
+      <c r="W8">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2016</v>
       </c>
       <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
         <v>53.19</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>53.19</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>24.91</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>7.56</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>23.86</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>-2.68</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>7.57</v>
-      </c>
-      <c r="I9">
-        <v>4.89</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
       </c>
       <c r="K9">
         <v>4.89</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>4.89</v>
+      </c>
+      <c r="N9">
         <v>-0.63</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>4.26</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>1.64</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>2.62</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>2.62</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>70.09</v>
-      </c>
-      <c r="R9">
-        <v>0.37</v>
-      </c>
-      <c r="S9">
-        <v>0.37</v>
       </c>
       <c r="T9">
         <v>0.37</v>
@@ -3476,64 +3518,70 @@
       <c r="U9">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>85</v>
+      <c r="V9">
+        <v>0.37</v>
+      </c>
+      <c r="W9">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2017</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
         <v>91.89</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>91.89</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>24.73</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>8.16</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>29.23</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>30.11</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>5.89</v>
-      </c>
-      <c r="I10">
-        <v>36</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
       </c>
       <c r="K10">
         <v>36</v>
       </c>
       <c r="L10">
-        <v>-3.93</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>36</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>36</v>
+      </c>
+      <c r="P10">
         <v>12.37</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>23.63</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>23.63</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>70.09999999999999</v>
-      </c>
-      <c r="R10">
-        <v>3.37</v>
-      </c>
-      <c r="S10">
-        <v>3.35</v>
       </c>
       <c r="T10">
         <v>3.37</v>
@@ -3541,64 +3589,70 @@
       <c r="U10">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>86</v>
+      <c r="V10">
+        <v>3.37</v>
+      </c>
+      <c r="W10">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2017</v>
       </c>
       <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
         <v>29.72</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>29.72</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>25.57</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>6.41</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>19.72</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>-22.2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>5.46</v>
-      </c>
-      <c r="I11">
-        <v>-16.74</v>
-      </c>
-      <c r="J11">
-        <v>0.05</v>
       </c>
       <c r="K11">
         <v>-16.74</v>
       </c>
       <c r="L11">
-        <v>-2.97</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>-16.74</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>-16.74</v>
+      </c>
+      <c r="P11">
         <v>-5.65</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>-11.09</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>-11.09</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>70.19</v>
-      </c>
-      <c r="R11">
-        <v>-1.58</v>
-      </c>
-      <c r="S11">
-        <v>-1.57</v>
       </c>
       <c r="T11">
         <v>-1.58</v>
@@ -3606,64 +3660,70 @@
       <c r="U11">
         <v>-1.57</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>87</v>
+      <c r="V11">
+        <v>-1.58</v>
+      </c>
+      <c r="W11">
+        <v>-1.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2017</v>
       </c>
       <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
         <v>104.53</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>104.53</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>25.69</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>6.76</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>14.4</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>53.53</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>5.69</v>
-      </c>
-      <c r="I12">
-        <v>59.22</v>
-      </c>
-      <c r="J12">
-        <v>0.05</v>
       </c>
       <c r="K12">
         <v>59.22</v>
       </c>
       <c r="L12">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>59.22</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>59.22</v>
+      </c>
+      <c r="P12">
         <v>19.95</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>39.27</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>39.27</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>70.19</v>
-      </c>
-      <c r="R12">
-        <v>5.6</v>
-      </c>
-      <c r="S12">
-        <v>5.58</v>
       </c>
       <c r="T12">
         <v>5.6</v>
@@ -3671,64 +3731,70 @@
       <c r="U12">
         <v>5.58</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>88</v>
+      <c r="V12">
+        <v>5.6</v>
+      </c>
+      <c r="W12">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2017</v>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
         <v>63.59</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>63.59</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>23.76</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>6.79</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>24.42</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>6.32</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>5.17</v>
-      </c>
-      <c r="I13">
-        <v>11.49</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
       </c>
       <c r="K13">
         <v>11.49</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>11.49</v>
+      </c>
+      <c r="N13">
         <v>-0.33</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>11.17</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>3.2</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>7.97</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>7.97</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>70.19</v>
-      </c>
-      <c r="R13">
-        <v>1.13</v>
-      </c>
-      <c r="S13">
-        <v>1.13</v>
       </c>
       <c r="T13">
         <v>1.13</v>
@@ -3736,64 +3802,70 @@
       <c r="U13">
         <v>1.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>89</v>
+      <c r="V13">
+        <v>1.13</v>
+      </c>
+      <c r="W13">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2018</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14">
         <v>118.38</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>118.38</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>24.65</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>6.92</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>22.37</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>59.2</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>13.55</v>
-      </c>
-      <c r="I14">
-        <v>72.73999999999999</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
       </c>
       <c r="K14">
         <v>72.73999999999999</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>72.73999999999999</v>
+      </c>
+      <c r="N14">
         <v>-7.18</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>65.56</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>22.84</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>42.72</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>42.72</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>70.39</v>
-      </c>
-      <c r="R14">
-        <v>6.08</v>
-      </c>
-      <c r="S14">
-        <v>6.07</v>
       </c>
       <c r="T14">
         <v>6.08</v>
@@ -3801,64 +3873,70 @@
       <c r="U14">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>90</v>
+      <c r="V14">
+        <v>6.08</v>
+      </c>
+      <c r="W14">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2018</v>
       </c>
       <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
         <v>52.79</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>52.79</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>25.09</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>5.91</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>16.62</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>3.36</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>6.38</v>
-      </c>
-      <c r="I15">
-        <v>9.73</v>
-      </c>
-      <c r="J15">
-        <v>0.05</v>
       </c>
       <c r="K15">
         <v>9.73</v>
       </c>
       <c r="L15">
-        <v>-2.97</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>9.73</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>9.73</v>
+      </c>
+      <c r="P15">
         <v>3.29</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>6.44</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>6.44</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>70.47</v>
-      </c>
-      <c r="R15">
-        <v>0.91</v>
-      </c>
-      <c r="S15">
-        <v>0.91</v>
       </c>
       <c r="T15">
         <v>0.91</v>
@@ -3866,64 +3944,70 @@
       <c r="U15">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>91</v>
+      <c r="V15">
+        <v>0.91</v>
+      </c>
+      <c r="W15">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>2018</v>
       </c>
       <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
         <v>108.86</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>108.86</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>24.35</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>6.01</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>19.59</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>54.27</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>8.640000000000001</v>
-      </c>
-      <c r="I16">
-        <v>62.9</v>
-      </c>
-      <c r="J16">
-        <v>0.05</v>
       </c>
       <c r="K16">
         <v>62.9</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>62.9</v>
+      </c>
+      <c r="N16">
         <v>-5</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>57.9</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>20.2</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>37.7</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>37.7</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>70.48999999999999</v>
-      </c>
-      <c r="R16">
-        <v>5.35</v>
-      </c>
-      <c r="S16">
-        <v>5.34</v>
       </c>
       <c r="T16">
         <v>5.35</v>
@@ -3931,64 +4015,70 @@
       <c r="U16">
         <v>5.34</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" t="s">
-        <v>92</v>
+      <c r="V16">
+        <v>5.35</v>
+      </c>
+      <c r="W16">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>2018</v>
       </c>
       <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17">
         <v>65.91</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>65.91</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>24.13</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>5.97</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>17.97</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>14.97</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>9.01</v>
-      </c>
-      <c r="I17">
-        <v>23.98</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
       </c>
       <c r="K17">
         <v>23.98</v>
       </c>
       <c r="L17">
-        <v>-0.287</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>23.98</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>23.98</v>
+      </c>
+      <c r="P17">
         <v>7.89</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>16.09</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>16.09</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>70.55</v>
-      </c>
-      <c r="R17">
-        <v>2.28</v>
-      </c>
-      <c r="S17">
-        <v>2.28</v>
       </c>
       <c r="T17">
         <v>2.28</v>
@@ -3996,64 +4086,70 @@
       <c r="U17">
         <v>2.28</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" t="s">
-        <v>93</v>
+      <c r="V17">
+        <v>2.28</v>
+      </c>
+      <c r="W17">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>2019</v>
       </c>
       <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18">
         <v>85.34999999999999</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>85.34999999999999</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>23.58</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>5.63</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>19.28</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>33.29</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>8.48</v>
-      </c>
-      <c r="I18">
-        <v>41.77</v>
-      </c>
-      <c r="J18">
-        <v>0.13</v>
       </c>
       <c r="K18">
         <v>41.77</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>41.77</v>
+      </c>
+      <c r="N18">
         <v>-4.32</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>37.45</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>13.73</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>23.73</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>23.73</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>70.56</v>
-      </c>
-      <c r="R18">
-        <v>3.37</v>
-      </c>
-      <c r="S18">
-        <v>3.37</v>
       </c>
       <c r="T18">
         <v>3.37</v>
@@ -4061,64 +4157,70 @@
       <c r="U18">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="V18">
+        <v>3.37</v>
+      </c>
+      <c r="W18">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>2019</v>
       </c>
       <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19">
         <v>57.15</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>57.15</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>26.41</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>5.16</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>15.89</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>7.85</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>8.43</v>
-      </c>
-      <c r="I19">
-        <v>16.28</v>
-      </c>
-      <c r="J19">
-        <v>0.05</v>
       </c>
       <c r="K19">
         <v>16.28</v>
       </c>
       <c r="L19">
-        <v>-2.97</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>16.28</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>16.28</v>
+      </c>
+      <c r="P19">
         <v>4.19</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>12.09</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>12.09</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>64.2</v>
-      </c>
-      <c r="R19">
-        <v>1.73</v>
-      </c>
-      <c r="S19">
-        <v>1.73</v>
       </c>
       <c r="T19">
         <v>1.73</v>
@@ -4126,64 +4228,70 @@
       <c r="U19">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" t="s">
-        <v>95</v>
+      <c r="V19">
+        <v>1.73</v>
+      </c>
+      <c r="W19">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>2019</v>
       </c>
       <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
         <v>97.69</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>97.69</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>25.07</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>5.53</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>21.16</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>43.08</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>7.3</v>
-      </c>
-      <c r="I20">
-        <v>50.37</v>
-      </c>
-      <c r="J20">
-        <v>0.05</v>
       </c>
       <c r="K20">
         <v>50.37</v>
       </c>
       <c r="L20">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>50.37</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>50.37</v>
+      </c>
+      <c r="P20">
         <v>12.81</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>37.57</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>37.57</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>64.2</v>
-      </c>
-      <c r="R20">
-        <v>5.85</v>
-      </c>
-      <c r="S20">
-        <v>5.85</v>
       </c>
       <c r="T20">
         <v>5.85</v>
@@ -4191,64 +4299,70 @@
       <c r="U20">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" t="s">
-        <v>96</v>
+      <c r="V20">
+        <v>5.85</v>
+      </c>
+      <c r="W20">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>2019</v>
       </c>
       <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
         <v>65.14</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>65.14</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>24.3</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>5.39</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>15.75</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>18.05</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>7.51</v>
-      </c>
-      <c r="I21">
-        <v>25.56</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
       </c>
       <c r="K21">
         <v>25.56</v>
       </c>
       <c r="L21">
-        <v>-0.287</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>25.56</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>25.56</v>
+      </c>
+      <c r="P21">
         <v>7.59</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>17.96</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>17.96</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>64.2</v>
-      </c>
-      <c r="R21">
-        <v>2.8</v>
-      </c>
-      <c r="S21">
-        <v>2.8</v>
       </c>
       <c r="T21">
         <v>2.8</v>
@@ -4256,64 +4370,70 @@
       <c r="U21">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" t="s">
-        <v>97</v>
+      <c r="V21">
+        <v>2.8</v>
+      </c>
+      <c r="W21">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>2020</v>
       </c>
       <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22">
         <v>63.43</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>63.43</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>24.2</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>5.59</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>33.32</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>2.44</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>8.109999999999999</v>
-      </c>
-      <c r="I22">
-        <v>10.55</v>
-      </c>
-      <c r="J22">
-        <v>0.13</v>
       </c>
       <c r="K22">
         <v>10.55</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>10.55</v>
+      </c>
+      <c r="N22">
         <v>-2.32</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>8.23</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>2.21</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>6.02</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>6.02</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>64.2</v>
-      </c>
-      <c r="R22">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="S22">
-        <v>0.9399999999999999</v>
       </c>
       <c r="T22">
         <v>0.9399999999999999</v>
@@ -4321,64 +4441,70 @@
       <c r="U22">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" t="s">
-        <v>98</v>
+      <c r="V22">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W22">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>2020</v>
       </c>
       <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23">
         <v>73.44</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>73.44</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>25.75</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>4.65</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>12.41</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>28.18</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>6.26</v>
-      </c>
-      <c r="I23">
-        <v>34.44</v>
-      </c>
-      <c r="J23">
-        <v>0.05</v>
       </c>
       <c r="K23">
         <v>34.44</v>
       </c>
       <c r="L23">
-        <v>-2.97</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>34.44</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>34.44</v>
+      </c>
+      <c r="P23">
         <v>8.81</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>25.63</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>25.63</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>64.2</v>
-      </c>
-      <c r="R23">
-        <v>3.99</v>
-      </c>
-      <c r="S23">
-        <v>3.99</v>
       </c>
       <c r="T23">
         <v>3.99</v>
@@ -4386,64 +4512,70 @@
       <c r="U23">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" t="s">
-        <v>99</v>
+      <c r="V23">
+        <v>3.99</v>
+      </c>
+      <c r="W23">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>2020</v>
       </c>
       <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24">
         <v>82.86</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>82.86</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>27.71</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>4.87</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>13.63</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>33.86</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>5.72</v>
-      </c>
-      <c r="I24">
-        <v>39.58</v>
-      </c>
-      <c r="J24">
-        <v>0.05</v>
       </c>
       <c r="K24">
         <v>39.58</v>
       </c>
       <c r="L24">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>39.58</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>39.58</v>
+      </c>
+      <c r="P24">
         <v>11.18</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>28.4</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>28.4</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>64.2</v>
-      </c>
-      <c r="R24">
-        <v>4.43</v>
-      </c>
-      <c r="S24">
-        <v>4.43</v>
       </c>
       <c r="T24">
         <v>4.43</v>
@@ -4451,64 +4583,70 @@
       <c r="U24">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" t="s">
-        <v>100</v>
+      <c r="V24">
+        <v>4.43</v>
+      </c>
+      <c r="W24">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>2020</v>
       </c>
       <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
         <v>71.12</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>71.12</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>28.6</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>4.96</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>24.66</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>10.79</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>6.23</v>
-      </c>
-      <c r="I25">
-        <v>17.02</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
       </c>
       <c r="K25">
         <v>17.02</v>
       </c>
       <c r="L25">
-        <v>-0.287</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>17.02</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>17.02</v>
+      </c>
+      <c r="P25">
         <v>4.3</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>12.72</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>12.72</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>64.20999999999999</v>
-      </c>
-      <c r="R25">
-        <v>1.98</v>
-      </c>
-      <c r="S25">
-        <v>1.98</v>
       </c>
       <c r="T25">
         <v>1.98</v>
@@ -4516,64 +4654,70 @@
       <c r="U25">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" t="s">
-        <v>101</v>
+      <c r="V25">
+        <v>1.98</v>
+      </c>
+      <c r="W25">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>2021</v>
       </c>
       <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
         <v>106.11</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>106.11</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>31.14</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>5</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>16.89</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>49.08</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>5.72</v>
-      </c>
-      <c r="I26">
-        <v>54.8</v>
-      </c>
-      <c r="J26">
-        <v>0.13</v>
       </c>
       <c r="K26">
         <v>54.8</v>
       </c>
       <c r="L26">
-        <v>-3.93</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>54.8</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>54.8</v>
+      </c>
+      <c r="P26">
         <v>14.76</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>40.04</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>40.04</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>64.20999999999999</v>
-      </c>
-      <c r="R26">
-        <v>6.24</v>
-      </c>
-      <c r="S26">
-        <v>6.22</v>
       </c>
       <c r="T26">
         <v>6.24</v>
@@ -4581,64 +4725,70 @@
       <c r="U26">
         <v>6.22</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" t="s">
-        <v>102</v>
+      <c r="V26">
+        <v>6.24</v>
+      </c>
+      <c r="W26">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>2021</v>
       </c>
       <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27">
         <v>54.38</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>54.38</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>32.5</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>4.1</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>16.12</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.33</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>6.24</v>
-      </c>
-      <c r="I27">
-        <v>6.57</v>
-      </c>
-      <c r="J27">
-        <v>0.05</v>
       </c>
       <c r="K27">
         <v>6.57</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>6.57</v>
+      </c>
+      <c r="N27">
         <v>-2.16</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>4.4</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>1.14</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>3.26</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>3.26</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>57.88</v>
-      </c>
-      <c r="R27">
-        <v>0.51</v>
-      </c>
-      <c r="S27">
-        <v>0.51</v>
       </c>
       <c r="T27">
         <v>0.51</v>
@@ -4646,64 +4796,70 @@
       <c r="U27">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" t="s">
-        <v>103</v>
+      <c r="V27">
+        <v>0.51</v>
+      </c>
+      <c r="W27">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>2021</v>
       </c>
       <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
         <v>103.79</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>103.79</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>33.69</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>4.16</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>19.81</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>42.14</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>3.65</v>
-      </c>
-      <c r="I28">
-        <v>45.79</v>
-      </c>
-      <c r="J28">
-        <v>0.05</v>
       </c>
       <c r="K28">
         <v>45.79</v>
       </c>
       <c r="L28">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>45.79</v>
       </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>45.79</v>
+      </c>
+      <c r="P28">
         <v>11.14</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>34.65</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>34.65</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>57.9</v>
-      </c>
-      <c r="R28">
-        <v>5.4</v>
-      </c>
-      <c r="S28">
-        <v>5.36</v>
       </c>
       <c r="T28">
         <v>5.4</v>
@@ -4711,64 +4867,70 @@
       <c r="U28">
         <v>5.36</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" t="s">
-        <v>104</v>
+      <c r="V28">
+        <v>5.4</v>
+      </c>
+      <c r="W28">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>2021</v>
       </c>
       <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
         <v>79.63</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>79.63</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>33.07</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>4.54</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>23.4</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>15.91</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>3.63</v>
-      </c>
-      <c r="I29">
-        <v>19.53</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
       </c>
       <c r="K29">
         <v>19.53</v>
       </c>
       <c r="L29">
-        <v>-0.287</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>19.53</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>19.53</v>
+      </c>
+      <c r="P29">
         <v>5.25</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>14.28</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>14.28</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>57.96</v>
-      </c>
-      <c r="R29">
-        <v>2.47</v>
-      </c>
-      <c r="S29">
-        <v>2.45</v>
       </c>
       <c r="T29">
         <v>2.47</v>
@@ -4776,64 +4938,70 @@
       <c r="U29">
         <v>2.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" t="s">
-        <v>105</v>
+      <c r="V29">
+        <v>2.47</v>
+      </c>
+      <c r="W29">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>2022</v>
       </c>
       <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
         <v>103.75</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>103.75</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>39.08</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>4.58</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>25.59</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>30.11</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>5.66</v>
-      </c>
-      <c r="I30">
-        <v>35.77</v>
-      </c>
-      <c r="J30">
-        <v>0.13</v>
       </c>
       <c r="K30">
         <v>35.77</v>
       </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>35.77</v>
+      </c>
+      <c r="N30">
         <v>-1.9</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>33.87</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>7.84</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>26.03</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>26.03</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>58.01</v>
-      </c>
-      <c r="R30">
-        <v>4.49</v>
-      </c>
-      <c r="S30">
-        <v>4.47</v>
       </c>
       <c r="T30">
         <v>4.49</v>
@@ -4841,64 +5009,70 @@
       <c r="U30">
         <v>4.47</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" t="s">
-        <v>106</v>
+      <c r="V30">
+        <v>4.49</v>
+      </c>
+      <c r="W30">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>2022</v>
       </c>
       <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
         <v>61.09</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>61.09</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>37.11</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>3.95</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>21.22</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>-2.79</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>3.19</v>
-      </c>
-      <c r="I31">
-        <v>0.4</v>
-      </c>
-      <c r="J31">
-        <v>0.05</v>
       </c>
       <c r="K31">
         <v>0.4</v>
       </c>
       <c r="L31">
-        <v>-2.97</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0.4</v>
       </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0.4</v>
+      </c>
+      <c r="P31">
         <v>0.1</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>0.3</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>0.3</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>58.02</v>
-      </c>
-      <c r="R31">
-        <v>0.05</v>
-      </c>
-      <c r="S31">
-        <v>0.05</v>
       </c>
       <c r="T31">
         <v>0.05</v>
@@ -4906,64 +5080,70 @@
       <c r="U31">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" t="s">
-        <v>107</v>
+      <c r="V31">
+        <v>0.05</v>
+      </c>
+      <c r="W31">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>2022</v>
       </c>
       <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32">
         <v>100.93</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>100.93</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>39.45</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>4.14</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>29.34</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>24.2</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>5.38</v>
-      </c>
-      <c r="I32">
-        <v>29.58</v>
-      </c>
-      <c r="J32">
-        <v>0.05</v>
       </c>
       <c r="K32">
         <v>29.58</v>
       </c>
       <c r="L32">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>29.58</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>29.58</v>
+      </c>
+      <c r="P32">
         <v>7.47</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>22.11</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>22.11</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>58.07</v>
-      </c>
-      <c r="R32">
-        <v>3.81</v>
-      </c>
-      <c r="S32">
-        <v>3.8</v>
       </c>
       <c r="T32">
         <v>3.81</v>
@@ -4971,64 +5151,70 @@
       <c r="U32">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" t="s">
-        <v>108</v>
+      <c r="V32">
+        <v>3.81</v>
+      </c>
+      <c r="W32">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>2022</v>
       </c>
       <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
         <v>66.8</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>66.8</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>40.38</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>4.17</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>34.63</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>-14.89</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>3.85</v>
-      </c>
-      <c r="I33">
-        <v>-11.04</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
       </c>
       <c r="K33">
         <v>-11.04</v>
       </c>
       <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>-11.04</v>
+      </c>
+      <c r="N33">
         <v>0.1</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>-10.94</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>-2.78</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>-8.16</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>-8.16</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>53.07</v>
-      </c>
-      <c r="R33">
-        <v>-1.5</v>
-      </c>
-      <c r="S33">
-        <v>-1.5</v>
       </c>
       <c r="T33">
         <v>-1.5</v>
@@ -5036,64 +5222,70 @@
       <c r="U33">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" t="s">
-        <v>109</v>
+      <c r="V33">
+        <v>-1.5</v>
+      </c>
+      <c r="W33">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>2023</v>
       </c>
       <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34">
         <v>49.29</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>49.29</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>37.95</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>3.73</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>25.9</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>-19.71</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>9.960000000000001</v>
-      </c>
-      <c r="I34">
-        <v>-9.75</v>
-      </c>
-      <c r="J34">
-        <v>0.13</v>
       </c>
       <c r="K34">
         <v>-9.75</v>
       </c>
       <c r="L34">
-        <v>-3.93</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>-9.75</v>
       </c>
       <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>-9.75</v>
+      </c>
+      <c r="P34">
         <v>-3.2</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>-6.55</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>-6.55</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>53.07</v>
-      </c>
-      <c r="R34">
-        <v>-1.23</v>
-      </c>
-      <c r="S34">
-        <v>-1.23</v>
       </c>
       <c r="T34">
         <v>-1.23</v>
@@ -5101,64 +5293,70 @@
       <c r="U34">
         <v>-1.23</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" t="s">
-        <v>110</v>
+      <c r="V34">
+        <v>-1.23</v>
+      </c>
+      <c r="W34">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>2023</v>
       </c>
       <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35">
         <v>51.43</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>51.43</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>39.33</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>2.93</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>26.29</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>-18.13</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>4.73</v>
-      </c>
-      <c r="I35">
-        <v>-13.4</v>
-      </c>
-      <c r="J35">
-        <v>0.05</v>
       </c>
       <c r="K35">
         <v>-13.4</v>
       </c>
       <c r="L35">
-        <v>-2.97</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>-13.4</v>
       </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>-13.4</v>
+      </c>
+      <c r="P35">
         <v>-0.52</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>-12.88</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>-12.88</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>53.07</v>
-      </c>
-      <c r="R35">
-        <v>-2.43</v>
-      </c>
-      <c r="S35">
-        <v>-2.43</v>
       </c>
       <c r="T35">
         <v>-2.43</v>
@@ -5166,64 +5364,70 @@
       <c r="U35">
         <v>-2.43</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" t="s">
-        <v>111</v>
+      <c r="V35">
+        <v>-2.43</v>
+      </c>
+      <c r="W35">
+        <v>-2.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>2023</v>
       </c>
       <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36">
         <v>78.37</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>78.37</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>41.7</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>3.25</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>23.63</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>7.73</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>5.68</v>
-      </c>
-      <c r="I36">
-        <v>13.41</v>
-      </c>
-      <c r="J36">
-        <v>0.05</v>
       </c>
       <c r="K36">
         <v>13.41</v>
       </c>
       <c r="L36">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>13.41</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>13.41</v>
+      </c>
+      <c r="P36">
         <v>0.51</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>12.9</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>12.9</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>53.08</v>
-      </c>
-      <c r="R36">
-        <v>2.43</v>
-      </c>
-      <c r="S36">
-        <v>2.42</v>
       </c>
       <c r="T36">
         <v>2.43</v>
@@ -5231,64 +5435,70 @@
       <c r="U36">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" t="s">
-        <v>112</v>
+      <c r="V36">
+        <v>2.43</v>
+      </c>
+      <c r="W36">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>2023</v>
       </c>
       <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37">
         <v>81.92</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>81.92</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>43.82</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>3.24</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>24.47</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>8.35</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>4.14</v>
-      </c>
-      <c r="I37">
-        <v>12.49</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
       </c>
       <c r="K37">
         <v>12.49</v>
       </c>
       <c r="L37">
-        <v>-0.287</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>12.49</v>
       </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>12.49</v>
+      </c>
+      <c r="P37">
         <v>2.47</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>10.02</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>10.02</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>53.32</v>
-      </c>
-      <c r="R37">
-        <v>1.88</v>
-      </c>
-      <c r="S37">
-        <v>1.85</v>
       </c>
       <c r="T37">
         <v>1.88</v>
@@ -5296,64 +5506,70 @@
       <c r="U37">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" t="s">
-        <v>113</v>
+      <c r="V37">
+        <v>1.88</v>
+      </c>
+      <c r="W37">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>2024</v>
       </c>
       <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38">
         <v>80.03</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>80.03</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>44.09</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>3.18</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>24.19</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>6.85</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>6.82</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>13.67</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>0.13</v>
-      </c>
-      <c r="K38">
-        <v>13.54</v>
-      </c>
-      <c r="L38">
-        <v>-3.93</v>
       </c>
       <c r="M38">
         <v>13.54</v>
       </c>
       <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>13.54</v>
+      </c>
+      <c r="P38">
         <v>-0.49</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>14.03</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>14.03</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>53.51</v>
-      </c>
-      <c r="R38">
-        <v>2.63</v>
-      </c>
-      <c r="S38">
-        <v>2.57</v>
       </c>
       <c r="T38">
         <v>2.63</v>
@@ -5361,64 +5577,70 @@
       <c r="U38">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" t="s">
-        <v>114</v>
+      <c r="V38">
+        <v>2.63</v>
+      </c>
+      <c r="W38">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>2024</v>
       </c>
       <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39">
         <v>70.29000000000001</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>70.29000000000001</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>44.17</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>2.79</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>22.14</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>-0.17</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>5.06</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>4.89</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>0.05</v>
-      </c>
-      <c r="K39">
-        <v>4.84</v>
-      </c>
-      <c r="L39">
-        <v>-2.97</v>
       </c>
       <c r="M39">
         <v>4.84</v>
       </c>
       <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>4.84</v>
+      </c>
+      <c r="P39">
         <v>0.78</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>4.06</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>4.06</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>53.54</v>
-      </c>
-      <c r="R39">
-        <v>0.76</v>
-      </c>
-      <c r="S39">
-        <v>0.74</v>
       </c>
       <c r="T39">
         <v>0.76</v>
@@ -5426,69 +5648,81 @@
       <c r="U39">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" t="s">
-        <v>115</v>
+      <c r="V39">
+        <v>0.76</v>
+      </c>
+      <c r="W39">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>2024</v>
       </c>
       <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40">
         <v>73.56999999999999</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>73.56999999999999</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>47.21</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>3.15</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>20.94</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>-0.27</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>5.21</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>4.94</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>0.05</v>
-      </c>
-      <c r="K40">
-        <v>4.89</v>
-      </c>
-      <c r="L40">
-        <v>-5</v>
       </c>
       <c r="M40">
         <v>4.89</v>
       </c>
       <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>4.89</v>
+      </c>
+      <c r="P40">
         <v>0.92</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>3.97</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>3.97</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>53.8</v>
-      </c>
-      <c r="R40">
-        <v>0.74</v>
-      </c>
-      <c r="S40">
-        <v>0.72</v>
       </c>
       <c r="T40">
         <v>0.74</v>
       </c>
       <c r="U40">
+        <v>0.72</v>
+      </c>
+      <c r="V40">
+        <v>0.74</v>
+      </c>
+      <c r="W40">
         <v>0.72</v>
       </c>
     </row>
@@ -5499,849 +5733,894 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>2011</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>171.51</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>76.81</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>74.94</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>74.72</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>50.61</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>44.78</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>43.69</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>43.56</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>29.5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>26.9</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>23.99</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>56.82</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>30.32</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="Q2">
-        <v>1323.221</v>
-      </c>
       <c r="R2">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2012</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>234.45</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>132.78</v>
-      </c>
-      <c r="D3">
-        <v>129.99</v>
       </c>
       <c r="E3">
         <v>129.99</v>
       </c>
       <c r="F3">
+        <v>129.99</v>
+      </c>
+      <c r="G3">
         <v>89.33</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>56.63</v>
-      </c>
-      <c r="H3">
-        <v>55.44</v>
       </c>
       <c r="I3">
         <v>55.44</v>
       </c>
       <c r="J3">
+        <v>55.44</v>
+      </c>
+      <c r="K3">
         <v>38.1</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>32.42</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>29.7</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>1.67</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.62</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>98.33</v>
       </c>
-      <c r="Q3">
-        <v>1323.221</v>
-      </c>
       <c r="R3">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>2013</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>268.38</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>151.36</v>
-      </c>
-      <c r="D4">
-        <v>145.55</v>
       </c>
       <c r="E4">
         <v>145.55</v>
       </c>
       <c r="F4">
+        <v>145.55</v>
+      </c>
+      <c r="G4">
         <v>101.57</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>56.39</v>
-      </c>
-      <c r="H4">
-        <v>54.23</v>
       </c>
       <c r="I4">
         <v>54.23</v>
       </c>
       <c r="J4">
+        <v>54.23</v>
+      </c>
+      <c r="K4">
         <v>37.84</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>27.14</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>24.65</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>2.46</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2.32</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>97.54000000000001</v>
       </c>
-      <c r="Q4">
-        <v>1323.221</v>
-      </c>
       <c r="R4">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>39.94</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>19.21</v>
-      </c>
-      <c r="D5">
-        <v>17.44</v>
       </c>
       <c r="E5">
         <v>17.44</v>
       </c>
       <c r="F5">
+        <v>17.44</v>
+      </c>
+      <c r="G5">
         <v>10.08</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>48.1</v>
-      </c>
-      <c r="H5">
-        <v>43.67</v>
       </c>
       <c r="I5">
         <v>43.67</v>
       </c>
       <c r="J5">
+        <v>43.67</v>
+      </c>
+      <c r="K5">
         <v>25.23</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>18.31</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>16.07</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>15.36</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>13.07</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>84.64</v>
       </c>
-      <c r="Q5">
-        <v>1323.221</v>
-      </c>
       <c r="R5">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>2015</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>46.51</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>16.78</v>
-      </c>
-      <c r="D6">
-        <v>13.48</v>
       </c>
       <c r="E6">
         <v>13.48</v>
       </c>
       <c r="F6">
+        <v>13.48</v>
+      </c>
+      <c r="G6">
         <v>9.220000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>36.07</v>
-      </c>
-      <c r="H6">
-        <v>28.97</v>
       </c>
       <c r="I6">
         <v>28.97</v>
       </c>
       <c r="J6">
+        <v>28.97</v>
+      </c>
+      <c r="K6">
         <v>19.81</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>16.67</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>12.98</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>81.34999999999999</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>59.88</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>18.65</v>
       </c>
-      <c r="Q6">
-        <v>1323.221</v>
-      </c>
       <c r="R6">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>2016</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>47.76</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>16.66</v>
-      </c>
-      <c r="D7">
-        <v>13.28</v>
       </c>
       <c r="E7">
         <v>13.28</v>
       </c>
       <c r="F7">
+        <v>13.28</v>
+      </c>
+      <c r="G7">
         <v>8.98</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>34.88</v>
-      </c>
-      <c r="H7">
-        <v>27.8</v>
       </c>
       <c r="I7">
         <v>27.8</v>
       </c>
       <c r="J7">
+        <v>27.8</v>
+      </c>
+      <c r="K7">
         <v>18.79</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>10.17</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>8.66</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>27.85</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>20.23</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>72.15000000000001</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1259.4</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>10.79</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>2017</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>42.66</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>17.83</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>13.43</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>12.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8.44</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>41.81</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>31.48</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>30.01</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>19.78</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8.710000000000001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>7.88</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>29.59</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>19.44</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>70.41</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1608.15</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>12.86</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>2018</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>44.93</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>21.82</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>18</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>16.94</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11.21</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>48.57</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>40.07</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>37.69</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>24.94</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>10.7</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>9.93</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>22.24</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>16.59</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>77.76000000000001</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1861.16</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>12.12</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>2019</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>44.34</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>22.95</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>19.61</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>18.29</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>11.9</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>51.74</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>44.22</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>41.24</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>26.83</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10.56</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>9.789999999999999</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>25.17</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>19.66</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>74.83</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1462.35</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>9.029999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>2020</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>44.14</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>19.38</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>16.01</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>15.64</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11.47</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>43.9</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>36.25</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>35.44</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>25.98</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>11.36</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>10.52</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>52.31</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>40.41</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>47.69</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>448.14</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>2021</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>51.95</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>25.75</v>
-      </c>
-      <c r="D12">
-        <v>22.71</v>
       </c>
       <c r="E12">
         <v>22.71</v>
       </c>
       <c r="F12">
+        <v>22.71</v>
+      </c>
+      <c r="G12">
         <v>16.63</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>49.56</v>
-      </c>
-      <c r="H12">
-        <v>43.72</v>
       </c>
       <c r="I12">
         <v>43.72</v>
       </c>
       <c r="J12">
+        <v>43.72</v>
+      </c>
+      <c r="K12">
         <v>32.01</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>14.12</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>12.85</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>56.82</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>30.32</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>47.551</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1120.68</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>6.78</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>24</v>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>2022</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>58.88</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>21.55</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>18.55</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>17.85</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>13.48</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>36.59</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>31.5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>30.32</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>22.89</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>12.46</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>10.92</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>29.62</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>24.23</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>70.38</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>970.77</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>7.77</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>2023</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>52.4</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4.74</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.73</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.75</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.45</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>9.050000000000001</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.34</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.76</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.83</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1.56</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>339.09</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>110.21</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-239.09</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>696.33</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>27.65</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>26</v>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>2024</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>54.52</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>7.25</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4.89</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4.87</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4.5</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>13.28</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8.970000000000001</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8.92</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>8.25</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>5.5</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4.69</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>55.13</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>36.18</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>44.87</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2482.01</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>64.02</v>
       </c>
     </row>
